--- a/片野裕哉/履歴書/02_片野裕哉_履歴書.xlsx
+++ b/片野裕哉/履歴書/02_片野裕哉_履歴書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>年</t>
   </si>
@@ -316,101 +316,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>私は、子供も大人もお年寄りの方も、誰でも楽しめるようなゲームの制作に携わり、　　　　　　　　　　　　　　　　　あまりゲームに触れたことのない人たちにもゲームの楽しさを感じてもらいたいと考えています。</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オトナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トシヨ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>タズサ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>これらのゲームは私の希望でもある『誰でも楽しめるゲーム』であり、特に「世界のアソビ大全51」は、　　　　　あまりゲームに触れてこなかった人でも楽しめるものであったと感じております。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>6月から10月初めまでの4か月ほどで制作した一作目のシューティングゲームでは、　　　　　　　　　　　　　　　　　敵の弾を反射することができるようにしたほか、4種の自機弾を実装し、飽きさせず楽しめる仕様にしました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>10月から1か月ほどで制作したアクションゲームでは、TNNより発売された『海腹川背』の仕様をオマージュし、より簡単な操作感で、よりアクティブに動き回ることができるようにし、誰でも楽しめるようにしています。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>入社した後もスキル向上をし続けられるところに魅力を感じました。　　　　　　　　　　　　　　　　　　　　　　　　　　　御社に入社し、笑顔を生み出すゲームを世界に届けたいため、志望致します。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>そのほかにも、誰もが知っている任天堂IPを使ったゲーム開発に携わることができる環境や、　　　　　　　　　GDCやCEDEC等の技術系のイベントや研修の支援などもしているということから、</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>御社が開発に携わっておりました「マリオパーティ」シリーズや、「Wii Party」シリーズ、　　　　　　　　　　　　　　　「世界のアソビ大全51」は、私も楽しくプレイさせていただいておりました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>これらのゲームは、『誰でも楽しめるゲーム』を基に、C言語を使用しDirectXで、　　　　　　　　　　　　　　　　　　　　　　　　　　　　ルールが分からなくとも楽しめる簡単な操作感や、爽快感を感じられるゲームになるよう制作してきました。</t>
-    <rPh sb="10" eb="11">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="87" eb="90">
-      <t>ソウサカン</t>
-    </rPh>
-    <rPh sb="92" eb="95">
-      <t>ソウカイカン</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>市立札幌平岸高等学校　普通科　入学</t>
     <rPh sb="11" eb="14">
       <t>フツウカ</t>
@@ -477,6 +382,127 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私も幼少の頃より親しんできている任天堂IPを使ったゲーム開発に携われる環境や、入社後のスキル向上も</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ニンテンドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>臨める環境にも魅力を感じ、貴社で笑顔を生み出すゲームを世界に届けたく思い志望致しました。</t>
+    <rPh sb="0" eb="1">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エガオヲ</t>
+    </rPh>
+    <rPh sb="19" eb="29">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>シボウイタ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私は幼少時、貴社が開発に携わっているマリオパーティシリーズや、Wii Partyシリーズを家族でプレイしていました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>あまりゲームをしない祖母や、操作もあまりわかっていない妹とプレイしていても全員が楽しめるゲームでした。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>その時から私は誰でも簡単で楽しめるそんなゲームを制作し提供していきたいと考えるようになりました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>専門学校では、「誰でも簡単に楽しめる」を根幹にゲームを制作してきました。6月から10月までの4か月ほどで</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>制作したシューティングゲームでは、敵弾を反射できるシステムや、4種の自機弾を実装しています。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>10月から1か月ほどで制作したアクションゲームでは、『海腹川背』シリーズの仕様をオマージュし、</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>自分なりに、より簡単な操作性でよりアクティブにゴムロープで動き回ることができるようにしました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ステージはExcelで作り、CSVファイルとして出力したものを読み込み制作できるようにしています。</t>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1499,6 +1525,176 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1621,174 +1817,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1803,18 +1886,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1841,27 +1912,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1884,30 +1934,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2300,24 +2326,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="75" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="P3" s="28"/>
+      <c r="C3" s="78"/>
+      <c r="P3" s="76"/>
     </row>
     <row r="4" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="G4" s="32" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="G4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="16">
         <v>2</v>
       </c>
@@ -2336,136 +2362,136 @@
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="28"/>
+      <c r="P4" s="76"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="P5" s="28"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="P5" s="76"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="39"/>
-      <c r="P6" s="28"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="2:17" ht="23.4" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="P7" s="28"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="89"/>
+      <c r="P7" s="76"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="48">
+      <c r="C8" s="91"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="96">
         <v>8</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="96">
         <v>12</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="55">
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="103">
         <v>19</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="P8" s="76"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="57"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="105"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="63"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2474,90 +2500,90 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="70"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="66"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="75"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="56"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="68" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="66"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="74" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="75"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="56"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2566,58 +2592,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="81" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="53"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="84"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="75"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="56"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="90"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.9" customHeight="1">
@@ -2627,22 +2653,22 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="93"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
       <c r="B20" s="9">
@@ -2651,22 +2677,22 @@
       <c r="C20" s="10">
         <v>4</v>
       </c>
-      <c r="D20" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="96"/>
+      <c r="D20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
       <c r="B21" s="9">
@@ -2675,22 +2701,22 @@
       <c r="C21" s="10">
         <v>3</v>
       </c>
-      <c r="D21" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="96"/>
+      <c r="D21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
       <c r="B22" s="9">
@@ -2699,22 +2725,22 @@
       <c r="C22" s="10">
         <v>4</v>
       </c>
-      <c r="D22" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="96"/>
+      <c r="D22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
       <c r="B23" s="9">
@@ -2723,166 +2749,166 @@
       <c r="C23" s="10">
         <v>3</v>
       </c>
-      <c r="D23" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="96"/>
+      <c r="D23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="2:17" ht="26.1" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="96"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="96"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="96"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="96"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="96"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="102"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -2891,42 +2917,42 @@
       <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="105"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="96"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="29"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -2935,22 +2961,22 @@
       <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="96"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="25" t="s">
@@ -2959,60 +2985,25 @@
       <c r="C35" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="97" t="s">
+      <c r="D35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="99"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D33:Q33"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="P2:P8"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G4:H4"/>
@@ -3028,6 +3019,41 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="D33:Q33"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="D32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -3046,7 +3072,7 @@
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:L26"/>
+      <selection activeCell="B28" sqref="B28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3070,122 +3096,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="124"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="119"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="120"/>
     </row>
     <row r="5" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="119"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="120"/>
     </row>
     <row r="6" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="119"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="120"/>
     </row>
     <row r="7" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="119"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="120"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="119"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="120"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="119"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="120"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="22"/>
@@ -3201,131 +3227,131 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="113"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="125"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="116"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="128"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="119"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="120"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="116"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="128"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="120"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="116"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="128"/>
     </row>
     <row r="17" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="119"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="120"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="116"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="128"/>
     </row>
     <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="125"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="133"/>
     </row>
     <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="22"/>
@@ -3341,186 +3367,176 @@
       <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
       <c r="F21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="135" t="s">
+      <c r="G21" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="136"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="114"/>
     </row>
     <row r="22" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B22" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="130"/>
+      <c r="B22" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="136"/>
     </row>
     <row r="23" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B23" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="111"/>
+      <c r="B23" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="108"/>
     </row>
     <row r="24" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="111"/>
+      <c r="B24" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="108"/>
     </row>
     <row r="25" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="111"/>
+      <c r="B25" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
+      <c r="B26" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="108"/>
     </row>
     <row r="27" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B27" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
+      <c r="B27" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="108"/>
     </row>
     <row r="28" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="111"/>
+      <c r="B28" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="108"/>
     </row>
     <row r="29" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B29" s="109" t="s">
+      <c r="B29" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="108"/>
+    </row>
+    <row r="30" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B30" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="108"/>
+    </row>
+    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="111"/>
-    </row>
-    <row r="30" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B30" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="111"/>
-    </row>
-    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="108"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D6:L6"/>
     <mergeCell ref="B31:L31"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B11:L11"/>
@@ -3537,6 +3553,20 @@
     <mergeCell ref="B28:L28"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B22:L22"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B26:L26"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/片野裕哉/履歴書/02_片野裕哉_履歴書.xlsx
+++ b/片野裕哉/履歴書/02_片野裕哉_履歴書.xlsx
@@ -386,122 +386,80 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>私も幼少の頃より親しんできている任天堂IPを使ったゲーム開発に携われる環境や、入社後のスキル向上も</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウショウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コロ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ニンテンドウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>タズサ</t>
+    <t>私は幼少時、貴社が開発に携わっているマリオパーティシリーズや、Wii Partyシリーズを家族でプレイしていました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>その時からこのような誰でも簡単で楽しめるゲームを、私も制作し提供していきたいと考えるようになりました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>自分なりに、より簡単な操作性でよりアクティブにゴムロープで動き回ることができるようにしました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>専門学校では、DirectXを使用してゲームを制作してきました。初めに制作したシューティングゲームでは、</t>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハジ</t>
     </rPh>
     <rPh sb="35" eb="37">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>コウジョウ</t>
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>敵弾を反射できるシステムや、4種の自機弾を実装しています。次に制作したのはアクションゲームです。</t>
+    <rPh sb="29" eb="30">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1か月ほどで制作したアクションゲームでは、『海腹川背』シリーズのゴムロープの挙動を再現しつつ、</t>
+    <rPh sb="38" eb="40">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サイゲン</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>臨める環境にも魅力を感じ、貴社で笑顔を生み出すゲームを世界に届けたく思い志望致しました。</t>
-    <rPh sb="0" eb="1">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ミリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>エガオヲ</t>
-    </rPh>
-    <rPh sb="19" eb="29">
-      <t>セカイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>シボウイタ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>私は幼少時、貴社が開発に携わっているマリオパーティシリーズや、Wii Partyシリーズを家族でプレイしていました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>あまりゲームをしない祖母や、操作もあまりわかっていない妹とプレイしていても全員が楽しめるゲームでした。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>その時から私は誰でも簡単で楽しめるそんなゲームを制作し提供していきたいと考えるようになりました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>専門学校では、「誰でも簡単に楽しめる」を根幹にゲームを制作してきました。6月から10月までの4か月ほどで</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>制作したシューティングゲームでは、敵弾を反射できるシステムや、4種の自機弾を実装しています。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>10月から1か月ほどで制作したアクションゲームでは、『海腹川背』シリーズの仕様をオマージュし、</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>自分なりに、より簡単な操作性でよりアクティブにゴムロープで動き回ることができるようにしました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ステージはExcelで作り、CSVファイルとして出力したものを読み込み制作できるようにしています。</t>
-    <rPh sb="11" eb="12">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>コ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>親しんできている任天堂IPを使ったゲーム開発に携われる環境や、入社後のスキル向上も</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>そして、ステージデータはExcelで作りCSVファイルとして出力したものを読み込み反映できるようにしています。</t>
+    <rPh sb="41" eb="43">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>これらのゲームは、「誰でも簡単に楽しめる」を目指し、操作性やシステムを試行錯誤し制作しました。</t>
+    <rPh sb="22" eb="24">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ソウサセイ</t>
     </rPh>
     <rPh sb="35" eb="37">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクゴ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
       <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="6"/>
@@ -3071,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:L28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3387,7 +3345,7 @@
     </row>
     <row r="22" spans="2:12" ht="26.1" customHeight="1">
       <c r="B22" s="134" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="135"/>
       <c r="D22" s="135"/>
@@ -3402,7 +3360,7 @@
     </row>
     <row r="23" spans="2:12" ht="26.1" customHeight="1">
       <c r="B23" s="106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
@@ -3417,7 +3375,7 @@
     </row>
     <row r="24" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B24" s="106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="107"/>
       <c r="D24" s="107"/>
@@ -3432,7 +3390,7 @@
     </row>
     <row r="25" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B25" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="107"/>
       <c r="D25" s="107"/>
@@ -3447,7 +3405,7 @@
     </row>
     <row r="26" spans="2:12" ht="26.1" customHeight="1">
       <c r="B26" s="106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
@@ -3462,7 +3420,7 @@
     </row>
     <row r="27" spans="2:12" ht="26.1" customHeight="1">
       <c r="B27" s="106" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
@@ -3507,7 +3465,7 @@
     </row>
     <row r="30" spans="2:12" ht="26.1" customHeight="1">
       <c r="B30" s="106" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
@@ -3522,7 +3480,7 @@
     </row>
     <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B31" s="121" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C31" s="122"/>
       <c r="D31" s="122"/>

--- a/片野裕哉/履歴書/02_片野裕哉_履歴書.xlsx
+++ b/片野裕哉/履歴書/02_片野裕哉_履歴書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\履歴書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\02_片野裕哉_履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -394,43 +394,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>自分なりに、より簡単な操作性でよりアクティブにゴムロープで動き回ることができるようにしました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>専門学校では、DirectXを使用してゲームを制作してきました。初めに制作したシューティングゲームでは、</t>
-    <rPh sb="15" eb="17">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>敵弾を反射できるシステムや、4種の自機弾を実装しています。次に制作したのはアクションゲームです。</t>
-    <rPh sb="29" eb="30">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1か月ほどで制作したアクションゲームでは、『海腹川背』シリーズのゴムロープの挙動を再現しつつ、</t>
-    <rPh sb="38" eb="40">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サイゲン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>臨める環境にも魅力を感じ、貴社で笑顔を生み出すゲームを世界に届けたく思い志望致しました。</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -461,6 +424,70 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>様々な攻撃方法や、敵弾を反射できるシステムを実装しています。次に制作したアクションゲームは、</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プレイする人が、より簡単な操作性でよりアクティブにゴムロープで動き回ることができるようにしました。</t>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>専門学校では、C言語を使用してゲームを制作してきました。初めに制作したシューティングゲームでは、</t>
+    <rPh sb="8" eb="10">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1か月ほどの期間で制作し、『海腹川背』シリーズのゴムロープの挙動を基に再現しつつ</t>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サイゲン</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1483,6 +1510,252 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1529,250 +1802,16 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1787,6 +1826,77 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1809,89 +1919,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2284,24 +2311,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="30"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="G4" s="80" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="G4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="16">
         <v>2</v>
       </c>
@@ -2320,136 +2347,136 @@
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="76"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
-      <c r="P5" s="76"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
-      <c r="P6" s="76"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="39"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:17" ht="23.4" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="89"/>
-      <c r="P7" s="76"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="96">
+      <c r="C8" s="43"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="48">
         <v>8</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="96">
+      <c r="G8" s="48">
         <v>12</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="103">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="55">
         <v>19</v>
       </c>
-      <c r="M8" s="96" t="s">
+      <c r="M8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="76"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="105"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="71" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="63"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2458,90 +2485,90 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="66"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="70"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="56"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="75"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="66"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="60" t="s">
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="56"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="75"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2550,58 +2577,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="54"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="56"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="75"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="43"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="90"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.9" customHeight="1">
@@ -2611,22 +2638,22 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="93"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
       <c r="B20" s="9">
@@ -2635,22 +2662,22 @@
       <c r="C20" s="10">
         <v>4</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="96"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
       <c r="B21" s="9">
@@ -2659,22 +2686,22 @@
       <c r="C21" s="10">
         <v>3</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="96"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
       <c r="B22" s="9">
@@ -2683,22 +2710,22 @@
       <c r="C22" s="10">
         <v>4</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="96"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
       <c r="B23" s="9">
@@ -2707,166 +2734,166 @@
       <c r="C23" s="10">
         <v>3</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="29"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="96"/>
     </row>
     <row r="24" spans="2:17" ht="26.1" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="96"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="96"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="96"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="96"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="96"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="102"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -2875,42 +2902,42 @@
       <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="105"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="29"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -2919,22 +2946,22 @@
       <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="96"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="25" t="s">
@@ -2943,25 +2970,60 @@
       <c r="C35" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="32"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D33:Q33"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="P2:P8"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G4:H4"/>
@@ -2977,41 +3039,6 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="D33:Q33"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="D32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -3030,7 +3057,7 @@
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:L27"/>
+      <selection activeCell="B25" sqref="B25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3054,122 +3081,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="130"/>
     </row>
     <row r="4" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="120"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="119"/>
     </row>
     <row r="5" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="120"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="119"/>
     </row>
     <row r="6" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="120"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="119"/>
     </row>
     <row r="7" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="120"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="120"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="120"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="22"/>
@@ -3185,131 +3212,131 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="125"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="113"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="128"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="120"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="128"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="120"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="116"/>
     </row>
     <row r="17" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="120"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="128"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="116"/>
     </row>
     <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="133"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="122"/>
     </row>
     <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="22"/>
@@ -3325,176 +3352,190 @@
       <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
       <c r="F21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="113" t="s">
+      <c r="G21" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="114"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="136"/>
     </row>
     <row r="22" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="136"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="125"/>
     </row>
     <row r="23" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="108"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
     </row>
     <row r="24" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="111"/>
+    </row>
+    <row r="25" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="111"/>
+    </row>
+    <row r="26" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B26" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
+    </row>
+    <row r="27" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B27" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+    </row>
+    <row r="28" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
+    </row>
+    <row r="29" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B29" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="111"/>
+    </row>
+    <row r="30" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B30" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="108"/>
-    </row>
-    <row r="25" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
-    </row>
-    <row r="26" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B26" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="108"/>
-    </row>
-    <row r="27" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B27" s="106" t="s">
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
+    </row>
+    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="108"/>
-    </row>
-    <row r="28" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="108"/>
-    </row>
-    <row r="29" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B29" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="108"/>
-    </row>
-    <row r="30" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B30" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="108"/>
-    </row>
-    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="123"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D6:L6"/>
     <mergeCell ref="B31:L31"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B11:L11"/>
@@ -3511,20 +3552,6 @@
     <mergeCell ref="B28:L28"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B22:L22"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B26:L26"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
